--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Lead contacts for questions or suggested modifications</t>
   </si>
@@ -165,6 +165,30 @@
   </si>
   <si>
     <t>Sophie Li</t>
+  </si>
+  <si>
+    <t>Christina Wang</t>
+  </si>
+  <si>
+    <t>NYU</t>
+  </si>
+  <si>
+    <t>Tim Levengood, MPH</t>
+  </si>
+  <si>
+    <t>María Jordán P.</t>
+  </si>
+  <si>
+    <t>Joel Earlywine</t>
+  </si>
+  <si>
+    <t>Grace Yoon</t>
+  </si>
+  <si>
+    <t>Emma Chistolini</t>
+  </si>
+  <si>
+    <t>Colby College</t>
   </si>
 </sst>
 </file>
@@ -537,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -643,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -651,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -659,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -667,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -675,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -687,13 +711,13 @@
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -701,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -709,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -717,7 +741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -725,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -733,7 +757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -741,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -749,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -757,7 +781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -765,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -773,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -781,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -789,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -797,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -805,7 +829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -813,7 +837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -821,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -829,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -837,7 +861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -845,7 +869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -853,7 +877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -861,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -869,12 +893,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Lead contacts for questions or suggested modifications</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Colby College</t>
+  </si>
+  <si>
+    <t>Claire Sontheimer, MSW</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -260,11 +263,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -279,6 +293,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,9 +578,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -949,6 +966,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Lead contacts for questions or suggested modifications</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Claire Sontheimer, MSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christina Fuleihan </t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,6 +977,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knock\Desktop\Covid\Data_GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F96A706-8157-1643-A29E-F8425737CB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,30 +581,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="16" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="16" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,29 +612,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="16" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="16" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="16" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="16" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="16" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -641,29 +642,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="16" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="16" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="16" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="66" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="16" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="16" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="16" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -679,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="16" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -687,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="16" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -695,7 +696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="16" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -703,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="16" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -711,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="16" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -719,7 +720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="16" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -727,17 +728,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="16" thickBot="1">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="16" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="16" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -745,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="16" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -753,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="16" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -761,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="16" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -769,7 +770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="16" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -777,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="16" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -785,7 +786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="16" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -793,7 +794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="16" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -801,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="16" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -809,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="16" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -817,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="16" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -825,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="17" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
@@ -833,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="16" thickBot="1">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -841,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="16" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -849,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="16" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -857,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="16" thickBot="1">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -865,7 +866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="16" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -873,7 +874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="16" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -881,7 +882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="16" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -889,7 +890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="16" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -897,7 +898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="16" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -905,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="16" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -913,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="16" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -921,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="16" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -929,7 +930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="16" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -937,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="16" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -945,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="16" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -953,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="16" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -961,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="16" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -969,7 +970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
@@ -977,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
         <v>56</v>
       </c>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F96A706-8157-1643-A29E-F8425737CB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B2E12-9E46-4C4A-A346-21F19551D311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26040" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Lead contacts for questions or suggested modifications</t>
   </si>
@@ -45,18 +45,6 @@
     <t>Boston University School of Public Health</t>
   </si>
   <si>
-    <t>Kristen Nocka</t>
-  </si>
-  <si>
-    <t>knocka@bu.edu</t>
-  </si>
-  <si>
-    <t>Research Fellow</t>
-  </si>
-  <si>
-    <t>Contributing faculty and fellow</t>
-  </si>
-  <si>
     <t>Julia Raifman, ScD</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
     <t>Megan Cole Brahim, PHD</t>
   </si>
   <si>
-    <t>Boson University</t>
-  </si>
-  <si>
     <t>Contributing students</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>Hannah Simon</t>
   </si>
   <si>
-    <t>Morgan Simko</t>
-  </si>
-  <si>
     <t>Rachel Scheckman</t>
   </si>
   <si>
@@ -138,9 +120,6 @@
     <t>University of York</t>
   </si>
   <si>
-    <t>Andrew Chiao</t>
-  </si>
-  <si>
     <t>Cara Safon, MPH</t>
   </si>
   <si>
@@ -192,17 +171,89 @@
     <t>Colby College</t>
   </si>
   <si>
-    <t>Claire Sontheimer, MSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christina Fuleihan </t>
+    <t>rscheckm@bu.edu</t>
+  </si>
+  <si>
+    <t>Database Manager</t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t>Robert Wood Johnson Foundation Evidence for Action </t>
+  </si>
+  <si>
+    <t>Boston University Clinical &amp; Translational Science Institute</t>
+  </si>
+  <si>
+    <t>Contributing faculty and fellows</t>
+  </si>
+  <si>
+    <t>Noa Krawczyk, PHD</t>
+  </si>
+  <si>
+    <t>NYU Langone Health</t>
+  </si>
+  <si>
+    <t>Rachel Scheckman, MPHc</t>
+  </si>
+  <si>
+    <t>Alexandra Skinner, MPH</t>
+  </si>
+  <si>
+    <t>Will Raderman, MSc</t>
+  </si>
+  <si>
+    <t>Claire Sontheimer</t>
+  </si>
+  <si>
+    <t>Pierce Louis</t>
+  </si>
+  <si>
+    <t>Hayden Tutty</t>
+  </si>
+  <si>
+    <t>Caredwen Foley,</t>
+  </si>
+  <si>
+    <t>Ure Nnanabu,</t>
+  </si>
+  <si>
+    <t>Andrew Chiao, MPH</t>
+  </si>
+  <si>
+    <t>Christina Fuleihan</t>
+  </si>
+  <si>
+    <t>Daisy Ramirez</t>
+  </si>
+  <si>
+    <t>Hana Do</t>
+  </si>
+  <si>
+    <t>Kaitlin Schalago</t>
+  </si>
+  <si>
+    <t>Kelsey Flannery</t>
+  </si>
+  <si>
+    <t>Meriama Moutik</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Morgan Simko, MPH</t>
+  </si>
+  <si>
+    <t>Yuqing Bai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,7 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -219,61 +269,23 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -282,26 +294,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -594,396 +590,544 @@
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="16" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="16" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" thickBot="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="16" thickBot="1">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="16" thickBot="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="16" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1">
-      <c r="A9" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" ht="16" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" ht="16" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" ht="16" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" thickBot="1">
-      <c r="A13" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" thickBot="1">
-      <c r="A14" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" thickBot="1">
-      <c r="A15" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" thickBot="1">
-      <c r="A16" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" thickBot="1">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" thickBot="1">
-      <c r="A18" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1">
-      <c r="A19" s="2" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" thickBot="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="16" thickBot="1">
-      <c r="A22" s="3" t="s">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="16" thickBot="1">
-      <c r="A23" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" thickBot="1">
-      <c r="A24" s="2" t="s">
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" thickBot="1">
-      <c r="A25" s="2" t="s">
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" thickBot="1">
-      <c r="A26" s="2" t="s">
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" thickBot="1">
-      <c r="A27" s="2" t="s">
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" thickBot="1">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" thickBot="1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" thickBot="1">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" thickBot="1">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" thickBot="1">
-      <c r="A35" s="2" t="s">
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" thickBot="1">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" thickBot="1">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" thickBot="1">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" thickBot="1">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" thickBot="1">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" thickBot="1">
-      <c r="A41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" thickBot="1">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" thickBot="1">
-      <c r="A43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" thickBot="1">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" thickBot="1">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" thickBot="1">
-      <c r="A46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" thickBot="1">
-      <c r="A47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" thickBot="1">
-      <c r="A48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" thickBot="1">
-      <c r="A49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" thickBot="1">
-      <c r="A50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" thickBot="1">
-      <c r="A51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>11</v>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amskinner2/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B2E12-9E46-4C4A-A346-21F19551D311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A58B1BC-01D1-DC4D-838F-0D8222272B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26040" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
-  <si>
-    <t>Lead contacts for questions or suggested modifications</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Julia Raifman</t>
   </si>
@@ -75,9 +72,6 @@
     <t>Megan Cole Brahim, PHD</t>
   </si>
   <si>
-    <t>Contributing students</t>
-  </si>
-  <si>
     <t>Carolyn Hoffman</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Hannah Simon</t>
   </si>
   <si>
-    <t>Rachel Scheckman</t>
-  </si>
-  <si>
     <t>Sarah Brewer</t>
   </si>
   <si>
@@ -171,24 +162,12 @@
     <t>Colby College</t>
   </si>
   <si>
-    <t>rscheckm@bu.edu</t>
-  </si>
-  <si>
-    <t>Database Manager</t>
-  </si>
-  <si>
-    <t>Funding</t>
-  </si>
-  <si>
     <t>Robert Wood Johnson Foundation Evidence for Action </t>
   </si>
   <si>
     <t>Boston University Clinical &amp; Translational Science Institute</t>
   </si>
   <si>
-    <t>Contributing faculty and fellows</t>
-  </si>
-  <si>
     <t>Noa Krawczyk, PHD</t>
   </si>
   <si>
@@ -213,12 +192,6 @@
     <t>Hayden Tutty</t>
   </si>
   <si>
-    <t>Caredwen Foley,</t>
-  </si>
-  <si>
-    <t>Ure Nnanabu,</t>
-  </si>
-  <si>
     <t>Andrew Chiao, MPH</t>
   </si>
   <si>
@@ -247,13 +220,43 @@
   </si>
   <si>
     <t>Yuqing Bai</t>
+  </si>
+  <si>
+    <t>Contributing faculty and fellows:</t>
+  </si>
+  <si>
+    <t>Funding:</t>
+  </si>
+  <si>
+    <t>Alexandra Skinner</t>
+  </si>
+  <si>
+    <t>skinnera@bu.edu</t>
+  </si>
+  <si>
+    <t>Lead contacts for questions or suggested modifications:</t>
+  </si>
+  <si>
+    <t>Contributing students:</t>
+  </si>
+  <si>
+    <t>Ure Nnanabu, MPH</t>
+  </si>
+  <si>
+    <t>Caredwen Foley</t>
+  </si>
+  <si>
+    <t>Rosemary Raymundo</t>
+  </si>
+  <si>
+    <t>Research Fellow &amp; Database Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +275,21 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,10 +312,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,553 +601,553 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amskinner2/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A58B1BC-01D1-DC4D-838F-0D8222272B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C68B197-7A98-C445-A90B-869CCFAA222E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>Will Raderman, MSc</t>
   </si>
   <si>
-    <t>Claire Sontheimer</t>
-  </si>
-  <si>
     <t>Pierce Louis</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Research Fellow &amp; Database Manager</t>
+  </si>
+  <si>
+    <t>Claire Sontheimer, MSW</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -652,15 +652,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1"/>
     </row>
@@ -682,7 +682,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1"/>
     </row>
@@ -712,7 +712,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1"/>
     </row>
@@ -818,13 +818,13 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>6</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,7 +1088,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>6</v>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amskinner2/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C68B197-7A98-C445-A90B-869CCFAA222E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADB8FCE-4C49-2741-A7B2-AA32726C5E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Julia Raifman</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Claire Sontheimer, MSW</t>
+  </si>
+  <si>
+    <t>Cheyenne Bailey</t>
   </si>
 </sst>
 </file>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,7 +859,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -864,7 +867,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -880,7 +883,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -888,23 +891,23 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
@@ -912,7 +915,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
@@ -920,7 +923,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
@@ -928,23 +931,23 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
@@ -952,7 +955,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>6</v>
@@ -960,7 +963,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>6</v>
@@ -968,31 +971,31 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
@@ -1008,7 +1011,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>6</v>
@@ -1016,23 +1019,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
@@ -1040,7 +1043,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>6</v>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>6</v>
@@ -1064,7 +1067,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
@@ -1072,31 +1075,31 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>6</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>6</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>6</v>
@@ -1128,7 +1131,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>6</v>
@@ -1136,17 +1139,25 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amskinner2/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADB8FCE-4C49-2741-A7B2-AA32726C5E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B939A3-A3A6-2C47-B94E-6C2577FCD766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="1300" windowWidth="25600" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="195">
   <si>
     <t>Julia Raifman</t>
   </si>
@@ -105,9 +114,6 @@
     <t>Manish Patel</t>
   </si>
   <si>
-    <t>Aishwarya Vidyasagaran, MBBS MPH</t>
-  </si>
-  <si>
     <t>University of York</t>
   </si>
   <si>
@@ -141,9 +147,6 @@
     <t>Christina Wang</t>
   </si>
   <si>
-    <t>NYU</t>
-  </si>
-  <si>
     <t>Tim Levengood, MPH</t>
   </si>
   <si>
@@ -253,13 +256,376 @@
   </si>
   <si>
     <t>Cheyenne Bailey</t>
+  </si>
+  <si>
+    <t>Wake Forest University</t>
+  </si>
+  <si>
+    <t>Emily A Benfer, JD, LLM</t>
+  </si>
+  <si>
+    <t>Aishwarya Vidyasagaran, MBBS, MPH</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>The Pew Charitable Trusts (funds COVID-19 housing &amp; utilities policy research)</t>
+  </si>
+  <si>
+    <t>Housing policy student researchers:</t>
+  </si>
+  <si>
+    <t>Valerie Achille</t>
+  </si>
+  <si>
+    <t>Karna Adam</t>
+  </si>
+  <si>
+    <t>Kerim Aksoy</t>
+  </si>
+  <si>
+    <t>Yesenia Arroyo</t>
+  </si>
+  <si>
+    <t>Dionna Attinson</t>
+  </si>
+  <si>
+    <t>Katharine Batchelor</t>
+  </si>
+  <si>
+    <t>Olivia Berci</t>
+  </si>
+  <si>
+    <t>Melissa Berouty</t>
+  </si>
+  <si>
+    <t>Alex Boros</t>
+  </si>
+  <si>
+    <t>Annelise Brinck-Johnsen</t>
+  </si>
+  <si>
+    <t>Likhitha Butchireddygari</t>
+  </si>
+  <si>
+    <t>Perry Cao</t>
+  </si>
+  <si>
+    <t>Wang Chen</t>
+  </si>
+  <si>
+    <t>Andrea Cho</t>
+  </si>
+  <si>
+    <t>Nate Christiansen</t>
+  </si>
+  <si>
+    <t>Sydney Cogswell</t>
+  </si>
+  <si>
+    <t>Susannah Cohen</t>
+  </si>
+  <si>
+    <t>Arabella Colombier</t>
+  </si>
+  <si>
+    <t>Cara Cook</t>
+  </si>
+  <si>
+    <t>Brian Daza</t>
+  </si>
+  <si>
+    <t>Ross Dispenza</t>
+  </si>
+  <si>
+    <t>Katherine Donohue</t>
+  </si>
+  <si>
+    <t>Emily Drake</t>
+  </si>
+  <si>
+    <t>Hannah Edge</t>
+  </si>
+  <si>
+    <t>Paul Fangrow</t>
+  </si>
+  <si>
+    <t>Shannon Ferrie</t>
+  </si>
+  <si>
+    <t>Susan Fleurant</t>
+  </si>
+  <si>
+    <t>Harry Frank</t>
+  </si>
+  <si>
+    <t>Natalie Galdos</t>
+  </si>
+  <si>
+    <t>Derek Gehring</t>
+  </si>
+  <si>
+    <t>Braedan Gillman</t>
+  </si>
+  <si>
+    <t>Libby Glass</t>
+  </si>
+  <si>
+    <t>Shravya Govindgari</t>
+  </si>
+  <si>
+    <t>Josue Guerra</t>
+  </si>
+  <si>
+    <t>Mia Gugliemi</t>
+  </si>
+  <si>
+    <t>Jocelyn Hassel</t>
+  </si>
+  <si>
+    <t>Taylor Hertzler</t>
+  </si>
+  <si>
+    <t>Jacob (Jake) Hewitt</t>
+  </si>
+  <si>
+    <t>Ruth Hirsch</t>
+  </si>
+  <si>
+    <t>Ryan Hopfe</t>
+  </si>
+  <si>
+    <t>Kyla Howard</t>
+  </si>
+  <si>
+    <t>Isaac Hudis</t>
+  </si>
+  <si>
+    <t>Wiley Hughes</t>
+  </si>
+  <si>
+    <t>Aaliyah Hyacinthe</t>
+  </si>
+  <si>
+    <t>Delaney James</t>
+  </si>
+  <si>
+    <t>Ty Jameson</t>
+  </si>
+  <si>
+    <t>Tom Joa</t>
+  </si>
+  <si>
+    <t>Daniel Johnson</t>
+  </si>
+  <si>
+    <t>Alia Joseph</t>
+  </si>
+  <si>
+    <t>Abby Karol</t>
+  </si>
+  <si>
+    <t>Jennifer Katz</t>
+  </si>
+  <si>
+    <t>Caitlin Kelly</t>
+  </si>
+  <si>
+    <t>Ellen Kim</t>
+  </si>
+  <si>
+    <t>Rob Koehler</t>
+  </si>
+  <si>
+    <t>Charles Koepp</t>
+  </si>
+  <si>
+    <t>Jacob Kornman</t>
+  </si>
+  <si>
+    <t>Suz Kroeber</t>
+  </si>
+  <si>
+    <t>Rani Kulkarni</t>
+  </si>
+  <si>
+    <t>John LaBarre</t>
+  </si>
+  <si>
+    <t>Michelle Lappen</t>
+  </si>
+  <si>
+    <t>Connie Lee</t>
+  </si>
+  <si>
+    <t>Xyzlo Lee</t>
+  </si>
+  <si>
+    <t>Nicole Levy</t>
+  </si>
+  <si>
+    <t>Jordan Lieberman</t>
+  </si>
+  <si>
+    <t>Mary Virginia Long</t>
+  </si>
+  <si>
+    <t>Marissa Yochelson Long</t>
+  </si>
+  <si>
+    <t>Ryan Madden</t>
+  </si>
+  <si>
+    <t>Josh Malkin</t>
+  </si>
+  <si>
+    <t>Isabel Malmazuda</t>
+  </si>
+  <si>
+    <t>Sarah McElwee</t>
+  </si>
+  <si>
+    <t>Tatum Millet</t>
+  </si>
+  <si>
+    <t>Mie Morikubo</t>
+  </si>
+  <si>
+    <t>Justice Mullen</t>
+  </si>
+  <si>
+    <t>Vanessa Okoyeh</t>
+  </si>
+  <si>
+    <t>Olivia Osburn</t>
+  </si>
+  <si>
+    <t>Manning Peeler</t>
+  </si>
+  <si>
+    <t>Elie Peltz</t>
+  </si>
+  <si>
+    <t>Justin Porter</t>
+  </si>
+  <si>
+    <t>Shannon Porterfield</t>
+  </si>
+  <si>
+    <t>Shannon Price </t>
+  </si>
+  <si>
+    <t>Susannah Price</t>
+  </si>
+  <si>
+    <t>Alex Price </t>
+  </si>
+  <si>
+    <t>Echo Qian</t>
+  </si>
+  <si>
+    <t>Harrison Reif</t>
+  </si>
+  <si>
+    <t>Jacob Roth</t>
+  </si>
+  <si>
+    <t>Nika Sabasteanski</t>
+  </si>
+  <si>
+    <t>Karen Saeed</t>
+  </si>
+  <si>
+    <t>Edgar Santiago</t>
+  </si>
+  <si>
+    <t>Andrew Savage</t>
+  </si>
+  <si>
+    <t>Austin Scherer </t>
+  </si>
+  <si>
+    <t>Kristen Schnell</t>
+  </si>
+  <si>
+    <t>Arthur Schoen</t>
+  </si>
+  <si>
+    <t>Shayna Servillas</t>
+  </si>
+  <si>
+    <t>Shiven Shah</t>
+  </si>
+  <si>
+    <t>Catherine Sims</t>
+  </si>
+  <si>
+    <t>Ethan Slabosky</t>
+  </si>
+  <si>
+    <t>Clayton Smith</t>
+  </si>
+  <si>
+    <t>Melissa Smith</t>
+  </si>
+  <si>
+    <t>Esther Stefanini</t>
+  </si>
+  <si>
+    <t>Janki Tailor</t>
+  </si>
+  <si>
+    <t>Emilia Todd</t>
+  </si>
+  <si>
+    <t>Kimberly Tomkies</t>
+  </si>
+  <si>
+    <t>Ethan Trice</t>
+  </si>
+  <si>
+    <t>Natalie Walters</t>
+  </si>
+  <si>
+    <t>Alexandra Warnock</t>
+  </si>
+  <si>
+    <t>Ashley Willard</t>
+  </si>
+  <si>
+    <t>Malikah Williams</t>
+  </si>
+  <si>
+    <t>Meg Wilson</t>
+  </si>
+  <si>
+    <t>Jacqueline Winters</t>
+  </si>
+  <si>
+    <t>Wendy Xiao </t>
+  </si>
+  <si>
+    <t>Amanda Yu</t>
+  </si>
+  <si>
+    <t>Nora Zakaria</t>
+  </si>
+  <si>
+    <t>Lanlie Zheng</t>
+  </si>
+  <si>
+    <t>Jenny Zhou</t>
+  </si>
+  <si>
+    <t>Gabriel Zimmerman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +660,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,12 +698,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,29 +987,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -631,95 +1017,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -735,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -743,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -751,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -759,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -767,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -775,7 +1163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -783,382 +1171,970 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>6</v>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Contributors.xlsx
+++ b/Contributors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amskinner2/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B939A3-A3A6-2C47-B94E-6C2577FCD766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02676FE5-3343-6742-AF51-557038EE3706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1300" windowWidth="25600" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="25600" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Claire Corkish</t>
   </si>
   <si>
-    <t>Elizabeth Ferrara</t>
-  </si>
-  <si>
     <t>Elizabeth Long</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>NYU Langone Health</t>
   </si>
   <si>
-    <t>Rachel Scheckman, MPHc</t>
-  </si>
-  <si>
     <t>Alexandra Skinner, MPH</t>
   </si>
   <si>
@@ -252,12 +246,6 @@
     <t>Research Fellow &amp; Database Manager</t>
   </si>
   <si>
-    <t>Claire Sontheimer, MSW</t>
-  </si>
-  <si>
-    <t>Cheyenne Bailey</t>
-  </si>
-  <si>
     <t>Wake Forest University</t>
   </si>
   <si>
@@ -619,13 +607,25 @@
   </si>
   <si>
     <t>Gabriel Zimmerman</t>
+  </si>
+  <si>
+    <t>Rachel Scheckman, MPH</t>
+  </si>
+  <si>
+    <t>Claire Sontheimer, MPH, MSW</t>
+  </si>
+  <si>
+    <t>Elizabeth Ferrara, MPH</t>
+  </si>
+  <si>
+    <t>Cheyenne Bailey, MPH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,27 +989,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1017,97 +1017,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,153 +1171,153 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,23 +1325,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,792 +1349,792 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="5" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="5" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="5" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="5" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="5" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="5" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="5" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="5" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="5" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="5" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="6" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="5" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="5" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="5" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="6" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="6" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="5" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="5" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="5" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="5" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="6" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="5" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="5" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="5" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="6" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="5" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="6" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="5" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="2" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="5" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="5" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="5" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="5" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="2" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="5" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="5" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="6" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="5" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="6" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="5" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="5" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="5" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="5" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="6" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="5" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="5" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="5" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="5" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="5" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="5" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="5" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="5" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="5" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="5" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="5" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="5" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="5" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="5" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="5" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="5" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="5" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="5" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="5" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="5" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="5" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="5" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="5" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="5" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="5" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="5" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="5" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="5" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="2" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="5" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="5" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="2" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="5" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="5" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="5" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="5" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="5" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="5" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="2" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="5" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="5" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="5" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="5" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="5" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="5" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="5" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="5" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="5" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="5" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="5" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="5" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="5" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="5" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
